--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0591417861374177</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H2">
-        <v>0.0591417861374177</v>
+        <v>0.116944</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3934368870631852</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3934368870631853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N2">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O2">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P2">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q2">
-        <v>0.08623763791662241</v>
+        <v>0.07439944795555554</v>
       </c>
       <c r="R2">
-        <v>0.08623763791662241</v>
+        <v>0.6695950316</v>
       </c>
       <c r="S2">
-        <v>0.02433643133930232</v>
+        <v>0.01144119506259448</v>
       </c>
       <c r="T2">
-        <v>0.02433643133930232</v>
+        <v>0.01144119506259449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.0591417861374177</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H3">
-        <v>0.0591417861374177</v>
+        <v>0.116944</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3934368870631852</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3934368870631853</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N3">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q3">
-        <v>1.212942634820259</v>
+        <v>0.800083953456</v>
       </c>
       <c r="R3">
-        <v>1.212942634820259</v>
+        <v>7.200755581104</v>
       </c>
       <c r="S3">
-        <v>0.3422948014804789</v>
+        <v>0.1230374260762015</v>
       </c>
       <c r="T3">
-        <v>0.3422948014804789</v>
+        <v>0.1230374260762015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.0591417861374177</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H4">
-        <v>0.0591417861374177</v>
+        <v>0.116944</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3934368870631852</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3934368870631853</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N4">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q4">
-        <v>0.4752335756438275</v>
+        <v>0.3398865873386667</v>
       </c>
       <c r="R4">
-        <v>0.4752335756438275</v>
+        <v>3.058979286048</v>
       </c>
       <c r="S4">
-        <v>0.1341118514281324</v>
+        <v>0.05226797848317725</v>
       </c>
       <c r="T4">
-        <v>0.1341118514281324</v>
+        <v>0.05226797848317727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.0591417861374177</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H5">
-        <v>0.0591417861374177</v>
+        <v>0.116944</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3934368870631852</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3934368870631853</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N5">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q5">
-        <v>0.6761199804965162</v>
+        <v>0.4632097266133334</v>
       </c>
       <c r="R5">
-        <v>0.6761199804965162</v>
+        <v>4.168887539520001</v>
       </c>
       <c r="S5">
-        <v>0.1908023906961892</v>
+        <v>0.07123269033178994</v>
       </c>
       <c r="T5">
-        <v>0.1908023906961892</v>
+        <v>0.07123269033178997</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.0591417861374177</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H6">
-        <v>0.0591417861374177</v>
+        <v>0.116944</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3934368870631852</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3934368870631853</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N6">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q6">
-        <v>0.09652810808332495</v>
+        <v>0.064000761488</v>
       </c>
       <c r="R6">
-        <v>0.09652810808332495</v>
+        <v>0.5760068533920001</v>
       </c>
       <c r="S6">
-        <v>0.02724042229628126</v>
+        <v>0.009842078354885358</v>
       </c>
       <c r="T6">
-        <v>0.02724042229628126</v>
+        <v>0.00984207835488536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.03898133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.116944</v>
+      </c>
+      <c r="I7">
+        <v>0.3934368870631852</v>
+      </c>
+      <c r="J7">
+        <v>0.3934368870631853</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>20.954868</v>
+      </c>
+      <c r="N7">
+        <v>62.864604</v>
+      </c>
+      <c r="O7">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="P7">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="Q7">
+        <v>0.816848694464</v>
+      </c>
+      <c r="R7">
+        <v>7.351638250176</v>
+      </c>
+      <c r="S7">
+        <v>0.1256155187545367</v>
+      </c>
+      <c r="T7">
+        <v>0.1256155187545368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.06009766666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.180293</v>
+      </c>
+      <c r="I8">
+        <v>0.6065631129368146</v>
+      </c>
+      <c r="J8">
+        <v>0.6065631129368148</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.908591666666666</v>
+      </c>
+      <c r="N8">
+        <v>5.725775</v>
+      </c>
+      <c r="O8">
+        <v>0.02908012806830959</v>
+      </c>
+      <c r="P8">
+        <v>0.0290801280683096</v>
+      </c>
+      <c r="Q8">
+        <v>0.1147019057861111</v>
+      </c>
+      <c r="R8">
+        <v>1.032317152075</v>
+      </c>
+      <c r="S8">
+        <v>0.0176389330057151</v>
+      </c>
+      <c r="T8">
+        <v>0.01763893300571511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.0591417861374177</v>
-      </c>
-      <c r="H7">
-        <v>0.0591417861374177</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>16.84932930869</v>
-      </c>
-      <c r="N7">
-        <v>16.84932930869</v>
-      </c>
-      <c r="O7">
-        <v>0.2812141027596159</v>
-      </c>
-      <c r="P7">
-        <v>0.2812141027596159</v>
-      </c>
-      <c r="Q7">
-        <v>0.9964994305334679</v>
-      </c>
-      <c r="R7">
-        <v>0.9964994305334679</v>
-      </c>
-      <c r="S7">
-        <v>0.2812141027596159</v>
-      </c>
-      <c r="T7">
-        <v>0.2812141027596159</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.06009766666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.180293</v>
+      </c>
+      <c r="I9">
+        <v>0.6065631129368146</v>
+      </c>
+      <c r="J9">
+        <v>0.6065631129368148</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>20.524797</v>
+      </c>
+      <c r="N9">
+        <v>61.574391</v>
+      </c>
+      <c r="O9">
+        <v>0.3127246837341967</v>
+      </c>
+      <c r="P9">
+        <v>0.3127246837341967</v>
+      </c>
+      <c r="Q9">
+        <v>1.233492408507</v>
+      </c>
+      <c r="R9">
+        <v>11.101431676563</v>
+      </c>
+      <c r="S9">
+        <v>0.1896872576579952</v>
+      </c>
+      <c r="T9">
+        <v>0.1896872576579952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.06009766666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.180293</v>
+      </c>
+      <c r="I10">
+        <v>0.6065631129368146</v>
+      </c>
+      <c r="J10">
+        <v>0.6065631129368148</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.719214000000001</v>
+      </c>
+      <c r="N10">
+        <v>26.157642</v>
+      </c>
+      <c r="O10">
+        <v>0.132849715422802</v>
+      </c>
+      <c r="P10">
+        <v>0.132849715422802</v>
+      </c>
+      <c r="Q10">
+        <v>0.5240044165673333</v>
+      </c>
+      <c r="R10">
+        <v>4.716039749106</v>
+      </c>
+      <c r="S10">
+        <v>0.08058173693962473</v>
+      </c>
+      <c r="T10">
+        <v>0.08058173693962477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.06009766666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.180293</v>
+      </c>
+      <c r="I11">
+        <v>0.6065631129368146</v>
+      </c>
+      <c r="J11">
+        <v>0.6065631129368148</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.88286</v>
+      </c>
+      <c r="N11">
+        <v>35.64858</v>
+      </c>
+      <c r="O11">
+        <v>0.1810523941044453</v>
+      </c>
+      <c r="P11">
+        <v>0.1810523941044453</v>
+      </c>
+      <c r="Q11">
+        <v>0.7141321593266666</v>
+      </c>
+      <c r="R11">
+        <v>6.42718943394</v>
+      </c>
+      <c r="S11">
+        <v>0.1098197037726553</v>
+      </c>
+      <c r="T11">
+        <v>0.1098197037726554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.06009766666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.180293</v>
+      </c>
+      <c r="I12">
+        <v>0.6065631129368146</v>
+      </c>
+      <c r="J12">
+        <v>0.6065631129368148</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.641831</v>
+      </c>
+      <c r="N12">
+        <v>4.925493</v>
+      </c>
+      <c r="O12">
+        <v>0.02501564718130951</v>
+      </c>
+      <c r="P12">
+        <v>0.02501564718130951</v>
+      </c>
+      <c r="Q12">
+        <v>0.098670212161</v>
+      </c>
+      <c r="R12">
+        <v>0.888031909449</v>
+      </c>
+      <c r="S12">
+        <v>0.01517356882642415</v>
+      </c>
+      <c r="T12">
+        <v>0.01517356882642415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.06009766666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.180293</v>
+      </c>
+      <c r="I13">
+        <v>0.6065631129368146</v>
+      </c>
+      <c r="J13">
+        <v>0.6065631129368148</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.954868</v>
+      </c>
+      <c r="N13">
+        <v>62.864604</v>
+      </c>
+      <c r="O13">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="P13">
+        <v>0.3192774314889369</v>
+      </c>
+      <c r="Q13">
+        <v>1.259338672108</v>
+      </c>
+      <c r="R13">
+        <v>11.334048048972</v>
+      </c>
+      <c r="S13">
+        <v>0.1936619127344001</v>
+      </c>
+      <c r="T13">
+        <v>0.1936619127344002</v>
       </c>
     </row>
   </sheetData>
